--- a/SeleniumPractise/test-output/GeneratedExcelResults/CleartripFlightSearchResults_Bangalore → Kolkata_Kolkata → Bangalore.xlsx
+++ b/SeleniumPractise/test-output/GeneratedExcelResults/CleartripFlightSearchResults_Bangalore → Kolkata_Kolkata → Bangalore.xlsx
@@ -13,15 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
-  <si>
-    <t>Tue, 31 Dec</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
+  <si>
+    <t>Sat, 04 Apr</t>
   </si>
   <si>
     <t>Bangalore → Kolkata</t>
   </si>
   <si>
-    <t>Thu, 10 Sep</t>
+    <t>Fri, 01 May</t>
   </si>
   <si>
     <t>Kolkata → Bangalore</t>
@@ -33,7 +33,7 @@
     <t>Depart</t>
   </si>
   <si>
-    <t>Arrive</t>
+    <t/>
   </si>
   <si>
     <t>Duration</t>
@@ -42,175 +42,259 @@
     <t>Price</t>
   </si>
   <si>
+    <t>SpiceJet SG-657</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>2h 25m</t>
+  </si>
+  <si>
+    <t>Rs.19,135</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-248</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>2h 30m</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-517</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>20:40</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-741</t>
+  </si>
+  <si>
+    <t>19:20</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>2h 20m</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-975</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>2h 35m</t>
+  </si>
+  <si>
+    <t>Rs.19,185</t>
+  </si>
+  <si>
+    <t>Air Asia I5-592</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-713</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>2h 40m</t>
+  </si>
+  <si>
+    <t>Rs.20,485</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-6339</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>Air India AI-776</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>Rs.21,505</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-344</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>Rs.22,445</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-874</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-433</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-714</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-172</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Rs.24,545</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-997</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>2h 50m</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-676</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>Air India AI-772</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>Rs.26,230</t>
+  </si>
+  <si>
+    <t>Air Asia I5-2990</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>Rs.26,640</t>
+  </si>
+  <si>
     <t>Air Asia I5-2472</t>
   </si>
   <si>
-    <t>05:35</t>
-  </si>
-  <si>
-    <t>08:15</t>
-  </si>
-  <si>
-    <t>2h 40m</t>
-  </si>
-  <si>
-    <t>Rs.33,200</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-448</t>
-  </si>
-  <si>
-    <t>07:25</t>
+    <t>07:20</t>
   </si>
   <si>
     <t>09:55</t>
   </si>
   <si>
-    <t>2h 30m</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-517</t>
-  </si>
-  <si>
-    <t>18:10</t>
-  </si>
-  <si>
-    <t>20:35</t>
-  </si>
-  <si>
-    <t>2h 25m</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-741</t>
-  </si>
-  <si>
-    <t>19:25</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>2h 20m</t>
-  </si>
-  <si>
-    <t>Air Asia I5-592</t>
+    <t>Rs.30,840</t>
+  </si>
+  <si>
+    <t>Air Asia I5-2991</t>
   </si>
   <si>
     <t>22:50</t>
   </si>
   <si>
-    <t>01:15</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-172</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>2h 35m</t>
-  </si>
-  <si>
-    <t>Rs.33,205</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-676</t>
-  </si>
-  <si>
-    <t>19:20</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-713</t>
-  </si>
-  <si>
-    <t>05:10</t>
-  </si>
-  <si>
-    <t>07:35</t>
-  </si>
-  <si>
-    <t>Rs.35,305</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-6339</t>
-  </si>
-  <si>
-    <t>06:45</t>
-  </si>
-  <si>
-    <t>09:15</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-344</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-874</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-657</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>Rs.35,565</t>
-  </si>
-  <si>
-    <t>Air Asia I5-2990</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>19:05</t>
-  </si>
-  <si>
-    <t>Rs.37,155</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-433</t>
-  </si>
-  <si>
-    <t>10:50</t>
-  </si>
-  <si>
-    <t>13:20</t>
-  </si>
-  <si>
-    <t>Rs.37,935</t>
-  </si>
-  <si>
-    <t>GoAir G8-831</t>
-  </si>
-  <si>
-    <t>15:20</t>
-  </si>
-  <si>
-    <t>17:55</t>
-  </si>
-  <si>
-    <t>Rs.19,740</t>
+    <t>01:20</t>
+  </si>
+  <si>
+    <t>Rs.21,770</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-658</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>Rs.22,705</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-742</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-516</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>Rs.24,285</t>
   </si>
   <si>
     <t>Air Asia I5-2473</t>
@@ -222,7 +306,31 @@
     <t>12:55</t>
   </si>
   <si>
-    <t>Rs.23,090</t>
+    <t>Rs.24,400</t>
+  </si>
+  <si>
+    <t>Air India AI-775</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>Rs.24,645</t>
+  </si>
+  <si>
+    <t>Air India AI-771</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>Rs.27,795</t>
   </si>
   <si>
     <t>Air Asia I5-588</t>
@@ -234,10 +342,7 @@
     <t>22:25</t>
   </si>
   <si>
-    <t>Air Asia I5-2991</t>
-  </si>
-  <si>
-    <t>01:20</t>
+    <t>Rs.28,015</t>
   </si>
   <si>
     <t>IndiGo 6E-379</t>
@@ -249,7 +354,7 @@
     <t>07:55</t>
   </si>
   <si>
-    <t>Rs.24,481</t>
+    <t>Rs.29,265</t>
   </si>
   <si>
     <t>IndiGo 6E-345</t>
@@ -276,27 +381,30 @@
     <t>IndiGo 6E-958</t>
   </si>
   <si>
-    <t>16:45</t>
-  </si>
-  <si>
     <t>IndiGo 6E-994</t>
   </si>
   <si>
     <t>15:10</t>
   </si>
   <si>
-    <t>17:45</t>
-  </si>
-  <si>
     <t>IndiGo 6E-6965</t>
   </si>
   <si>
-    <t>15:40</t>
+    <t>15:30</t>
   </si>
   <si>
     <t>18:05</t>
   </si>
   <si>
+    <t>IndiGo 6E-875</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
     <t>IndiGo 6E-342</t>
   </si>
   <si>
@@ -315,46 +423,13 @@
     <t>00:05</t>
   </si>
   <si>
-    <t>IndiGo 6E-875</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>19:50</t>
-  </si>
-  <si>
-    <t>Rs.24,805</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-516</t>
-  </si>
-  <si>
-    <t>06:55</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>Rs.25,095</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-658</t>
-  </si>
-  <si>
-    <t>17:10</t>
-  </si>
-  <si>
-    <t>19:40</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-742</t>
-  </si>
-  <si>
-    <t>22:10</t>
-  </si>
-  <si>
-    <t>00:40</t>
+    <t>IndiGo 6E-976</t>
+  </si>
+  <si>
+    <t>23:40</t>
+  </si>
+  <si>
+    <t>02:10</t>
   </si>
 </sst>
 </file>
@@ -399,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -475,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -483,16 +558,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -500,70 +575,70 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -580,75 +655,75 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -666,6 +741,91 @@
       </c>
       <c r="E16" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -708,274 +868,308 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>107</v>
+      <c r="E20" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumPractise/test-output/GeneratedExcelResults/CleartripFlightSearchResults_Bangalore → Kolkata_Kolkata → Bangalore.xlsx
+++ b/SeleniumPractise/test-output/GeneratedExcelResults/CleartripFlightSearchResults_Bangalore → Kolkata_Kolkata → Bangalore.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>Sat, 04 Apr</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Depart</t>
   </si>
   <si>
-    <t/>
+    <t>Arrive</t>
   </si>
   <si>
     <t>Duration</t>
@@ -42,6 +42,60 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Air Asia I5-2472</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>2h 35m</t>
+  </si>
+  <si>
+    <t>Rs.19,135</t>
+  </si>
+  <si>
+    <t>Air Asia I5-2990</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>Air Asia I5-592</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-874</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>Rs.19,185</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-975</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
     <t>SpiceJet SG-657</t>
   </si>
   <si>
@@ -54,7 +108,7 @@
     <t>2h 25m</t>
   </si>
   <si>
-    <t>Rs.19,135</t>
+    <t>Rs.19,395</t>
   </si>
   <si>
     <t>SpiceJet SG-248</t>
@@ -90,28 +144,37 @@
     <t>2h 20m</t>
   </si>
   <si>
-    <t>IndiGo 6E-975</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>23:05</t>
-  </si>
-  <si>
-    <t>2h 35m</t>
-  </si>
-  <si>
-    <t>Rs.19,185</t>
-  </si>
-  <si>
-    <t>Air Asia I5-592</t>
-  </si>
-  <si>
-    <t>22:55</t>
-  </si>
-  <si>
-    <t>01:30</t>
+    <t>IndiGo 6E-6339</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>Rs.20,485</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-714</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>Air India AI-776</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>Rs.21,505</t>
   </si>
   <si>
     <t>IndiGo 6E-713</t>
@@ -126,28 +189,7 @@
     <t>2h 40m</t>
   </si>
   <si>
-    <t>Rs.20,485</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-6339</t>
-  </si>
-  <si>
-    <t>06:20</t>
-  </si>
-  <si>
-    <t>08:50</t>
-  </si>
-  <si>
-    <t>Air India AI-776</t>
-  </si>
-  <si>
-    <t>05:50</t>
-  </si>
-  <si>
-    <t>08:20</t>
-  </si>
-  <si>
-    <t>Rs.21,505</t>
+    <t>Rs.22,445</t>
   </si>
   <si>
     <t>IndiGo 6E-344</t>
@@ -159,18 +201,6 @@
     <t>11:05</t>
   </si>
   <si>
-    <t>Rs.22,445</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-874</t>
-  </si>
-  <si>
-    <t>09:50</t>
-  </si>
-  <si>
-    <t>12:25</t>
-  </si>
-  <si>
     <t>IndiGo 6E-433</t>
   </si>
   <si>
@@ -180,15 +210,6 @@
     <t>13:30</t>
   </si>
   <si>
-    <t>IndiGo 6E-714</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>20:55</t>
-  </si>
-  <si>
     <t>IndiGo 6E-172</t>
   </si>
   <si>
@@ -198,27 +219,27 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>IndiGo 6E-676</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-997</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>2h 50m</t>
+  </si>
+  <si>
     <t>Rs.24,545</t>
   </si>
   <si>
-    <t>IndiGo 6E-997</t>
-  </si>
-  <si>
-    <t>14:55</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>2h 50m</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-676</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
     <t>Air India AI-772</t>
   </si>
   <si>
@@ -228,30 +249,6 @@
     <t>Rs.26,230</t>
   </si>
   <si>
-    <t>Air Asia I5-2990</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>19:05</t>
-  </si>
-  <si>
-    <t>Rs.26,640</t>
-  </si>
-  <si>
-    <t>Air Asia I5-2472</t>
-  </si>
-  <si>
-    <t>07:20</t>
-  </si>
-  <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>Rs.30,840</t>
-  </si>
-  <si>
     <t>Air Asia I5-2991</t>
   </si>
   <si>
@@ -297,6 +294,30 @@
     <t>Rs.24,285</t>
   </si>
   <si>
+    <t>Air India AI-775</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>Rs.24,645</t>
+  </si>
+  <si>
+    <t>Air India AI-771</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>Rs.27,795</t>
+  </si>
+  <si>
     <t>Air Asia I5-2473</t>
   </si>
   <si>
@@ -306,31 +327,7 @@
     <t>12:55</t>
   </si>
   <si>
-    <t>Rs.24,400</t>
-  </si>
-  <si>
-    <t>Air India AI-775</t>
-  </si>
-  <si>
-    <t>21:15</t>
-  </si>
-  <si>
-    <t>23:50</t>
-  </si>
-  <si>
-    <t>Rs.24,645</t>
-  </si>
-  <si>
-    <t>Air India AI-771</t>
-  </si>
-  <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>16:45</t>
-  </si>
-  <si>
-    <t>Rs.27,795</t>
+    <t>Rs.28,015</t>
   </si>
   <si>
     <t>Air Asia I5-588</t>
@@ -340,9 +337,6 @@
   </si>
   <si>
     <t>22:25</t>
-  </si>
-  <si>
-    <t>Rs.28,015</t>
   </si>
   <si>
     <t>IndiGo 6E-379</t>
@@ -533,7 +527,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -541,16 +535,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -558,189 +552,189 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -754,27 +748,27 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -782,30 +776,30 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -816,16 +810,16 @@
         <v>75</v>
       </c>
       <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -868,308 +862,308 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>110</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
